--- a/image/substancedefinition.xlsx
+++ b/image/substancedefinition.xlsx
@@ -1298,42 +1298,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="196.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="196.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.41796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="58.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substancedefinition.xlsx
+++ b/image/substancedefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -339,28 +339,28 @@
     <t>Identifier by which this substance is known.</t>
   </si>
   <si>
-    <t>SubstanceDefinition.type</t>
+    <t>SubstanceDefinition.status</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>High level categorization, e.g. polymer or nucleic acid</t>
-  </si>
-  <si>
-    <t>High level categorization, e.g. polymer or nucleic acid.</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.status</t>
-  </si>
-  <si>
     <t>Status of substance within the catalogue e.g. approved</t>
   </si>
   <si>
     <t>Status of substance within the catalogue e.g. approved.</t>
   </si>
   <si>
+    <t>SubstanceDefinition.category</t>
+  </si>
+  <si>
+    <t>High level categorization, e.g. polymer or nucleic acid, or food, chemical, biological</t>
+  </si>
+  <si>
+    <t>High level categorization, e.g. polymer or nucleic acid, or food, chemical, biological.</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.domain</t>
   </si>
   <si>
@@ -371,10 +371,6 @@
   </si>
   <si>
     <t>SubstanceDefinition.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Textual description of the substance</t>
@@ -396,7 +392,11 @@
     <t>Supporting literature.</t>
   </si>
   <si>
-    <t>SubstanceDefinition.comment</t>
+    <t>SubstanceDefinition.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
   </si>
   <si>
     <t>Textual comment about this record of a substance</t>
@@ -511,10 +511,10 @@
     <t>SubstanceDefinition.moiety.molecularFormula</t>
   </si>
   <si>
-    <t>Molecular formula</t>
-  </si>
-  <si>
-    <t>Molecular formula.</t>
+    <t>Molecular formula for this moiety of this substance, typically using the Hill system</t>
+  </si>
+  <si>
+    <t>Molecular formula for this moiety of this substance, typically using the Hill system.</t>
   </si>
   <si>
     <t>SubstanceDefinition.moiety.amount[x]</t>
@@ -530,6 +530,15 @@
     <t>Quantitative value for this moiety.</t>
   </si>
   <si>
+    <t>SubstanceDefinition.moiety.amountType</t>
+  </si>
+  <si>
+    <t>The measurement type of the quantitative value</t>
+  </si>
+  <si>
+    <t>The measurement type of the quantitative value.</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.property</t>
   </si>
   <si>
@@ -597,6 +606,22 @@
     <t>Quantitative value for this property.</t>
   </si>
   <si>
+    <t>SubstanceDefinition.property.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>Range of typical values</t>
+  </si>
+  <si>
+    <t>Range of typical values.</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.property.source</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.referenceInformation</t>
   </si>
   <si>
@@ -637,6 +662,12 @@
     <t>SubstanceDefinition.structure.molecularFormula</t>
   </si>
   <si>
+    <t>Molecular formula of this substance, typically using the Hill system</t>
+  </si>
+  <si>
+    <t>Molecular formula of this substance, typically using the Hill system.</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.structure.molecularFormulaByMoiety</t>
   </si>
   <si>
@@ -834,10 +865,10 @@
     <t>SubstanceDefinition.code.status</t>
   </si>
   <si>
-    <t>Status of the code assignment</t>
-  </si>
-  <si>
-    <t>Status of the code assignment.</t>
+    <t>Status of the code assignment, for example 'provisional', 'approved'</t>
+  </si>
+  <si>
+    <t>Status of the code assignment, for example 'provisional', 'approved'.</t>
   </si>
   <si>
     <t>SubstanceDefinition.code.statusDate</t>
@@ -853,7 +884,7 @@
     <t>The date at which the code status is changed as part of the terminology maintenance.</t>
   </si>
   <si>
-    <t>SubstanceDefinition.code.comment</t>
+    <t>SubstanceDefinition.code.note</t>
   </si>
   <si>
     <t>Any comment can be provided in this field, if necessary</t>
@@ -895,19 +926,19 @@
     <t>SubstanceDefinition.name.type</t>
   </si>
   <si>
-    <t>Name type</t>
-  </si>
-  <si>
-    <t>Name type.</t>
+    <t>Name type, for example 'systematic',  'scientific, 'brand'</t>
+  </si>
+  <si>
+    <t>Name type, for example 'systematic',  'scientific, 'brand'.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.status</t>
   </si>
   <si>
-    <t>The status of the name</t>
-  </si>
-  <si>
-    <t>The status of the name.</t>
+    <t>The status of the name, for example 'current', 'proposed'</t>
+  </si>
+  <si>
+    <t>The status of the name, for example 'current', 'proposed'.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.preferred</t>
@@ -926,10 +957,10 @@
     <t>SubstanceDefinition.name.language</t>
   </si>
   <si>
-    <t>Language of the name</t>
-  </si>
-  <si>
-    <t>Language of the name.</t>
+    <t>Human language that the name is written in</t>
+  </si>
+  <si>
+    <t>Human language that the name is written in.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.domain</t>
@@ -953,19 +984,19 @@
     <t>SubstanceDefinition.name.synonym</t>
   </si>
   <si>
-    <t>A synonym of this name</t>
-  </si>
-  <si>
-    <t>A synonym of this name.</t>
+    <t>A synonym of this particular name, by which the substance is also known</t>
+  </si>
+  <si>
+    <t>A synonym of this particular name, by which the substance is also known.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.translation</t>
   </si>
   <si>
-    <t>A translation for this name</t>
-  </si>
-  <si>
-    <t>A translation for this name.</t>
+    <t>A translation for this name into another human language</t>
+  </si>
+  <si>
+    <t>A translation for this name into another human language.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.official</t>
@@ -998,10 +1029,10 @@
     <t>SubstanceDefinition.name.official.status</t>
   </si>
   <si>
-    <t>The status of the official name</t>
-  </si>
-  <si>
-    <t>The status of the official name.</t>
+    <t>The status of the official name, for example 'provisional', 'approved'</t>
+  </si>
+  <si>
+    <t>The status of the official name, for example 'provisional', 'approved'.</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.official.date</t>
@@ -1037,7 +1068,7 @@
     <t>SubstanceDefinition.relationship.modifierExtension</t>
   </si>
   <si>
-    <t>SubstanceDefinition.relationship.substance[x]</t>
+    <t>SubstanceDefinition.relationship.substanceDefinition[x]</t>
   </si>
   <si>
     <t>Reference(SubstanceDefinition)
@@ -1289,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ116"/>
+  <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1298,42 +1329,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.7734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="196.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="196.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="58.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="57.41796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2787,13 +2818,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2864,7 +2895,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2887,13 +2918,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2944,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2964,7 +2995,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2975,7 +3006,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2987,7 +3018,7 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>123</v>
@@ -3044,13 +3075,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -3187,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>131</v>
@@ -3693,7 +3724,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3993,7 +4024,7 @@
         <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -4181,7 +4212,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -4193,7 +4224,7 @@
         <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>166</v>
@@ -4256,13 +4287,13 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>37</v>
@@ -4281,7 +4312,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>37</v>
@@ -4290,16 +4321,16 @@
         <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4350,38 +4381,38 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -4393,17 +4424,15 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>37</v>
@@ -4452,13 +4481,13 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -4472,11 +4501,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4489,26 +4518,24 @@
         <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>37</v>
       </c>
@@ -4556,7 +4583,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -4571,44 +4598,48 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>37</v>
       </c>
@@ -4656,13 +4687,13 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>37</v>
@@ -4671,7 +4702,7 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -4799,7 +4830,7 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>178</v>
@@ -4899,13 +4930,13 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4976,7 +5007,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4999,7 +5030,7 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>185</v>
@@ -5056,7 +5087,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -5099,13 +5130,13 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5176,7 +5207,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5199,7 +5230,7 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>192</v>
@@ -5256,7 +5287,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
@@ -5268,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>37</v>
@@ -5287,7 +5318,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>37</v>
@@ -5296,16 +5327,16 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5356,13 +5387,13 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>37</v>
@@ -5371,7 +5402,7 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -5380,14 +5411,14 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>37</v>
@@ -5396,20 +5427,18 @@
         <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>37</v>
@@ -5458,13 +5487,13 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>37</v>
@@ -5473,48 +5502,44 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>37</v>
       </c>
@@ -5562,27 +5587,27 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5602,16 +5627,16 @@
         <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5662,7 +5687,7 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
@@ -5677,23 +5702,23 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>37</v>
@@ -5702,18 +5727,20 @@
         <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>37</v>
@@ -5762,13 +5789,13 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>37</v>
@@ -5777,44 +5804,48 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>37</v>
       </c>
@@ -5862,13 +5893,13 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>37</v>
@@ -5877,12 +5908,12 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5905,13 +5936,13 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5962,7 +5993,7 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
@@ -5982,7 +6013,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5993,7 +6024,7 @@
         <v>38</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>37</v>
@@ -6005,13 +6036,13 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6062,19 +6093,19 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>37</v>
@@ -6082,7 +6113,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6102,16 +6133,16 @@
         <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6162,7 +6193,7 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
@@ -6177,23 +6208,23 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>37</v>
@@ -6202,20 +6233,18 @@
         <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>37</v>
@@ -6264,13 +6293,13 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>37</v>
@@ -6279,16 +6308,16 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6301,26 +6330,22 @@
         <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>37</v>
       </c>
@@ -6368,7 +6393,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -6380,15 +6405,15 @@
         <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6408,16 +6433,16 @@
         <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6468,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -6483,23 +6508,23 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>37</v>
@@ -6508,18 +6533,20 @@
         <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>37</v>
@@ -6568,13 +6595,13 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>37</v>
@@ -6583,44 +6610,48 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>37</v>
       </c>
@@ -6668,13 +6699,13 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>37</v>
@@ -6683,12 +6714,12 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6711,7 +6742,7 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>220</v>
@@ -6768,7 +6799,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
@@ -6811,7 +6842,7 @@
         <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>223</v>
@@ -6880,7 +6911,7 @@
         <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>37</v>
@@ -6908,16 +6939,16 @@
         <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6968,7 +6999,7 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>38</v>
@@ -6983,23 +7014,23 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>37</v>
@@ -7008,20 +7039,18 @@
         <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>37</v>
@@ -7070,13 +7099,13 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>37</v>
@@ -7085,48 +7114,44 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>37</v>
       </c>
@@ -7174,27 +7199,27 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7214,16 +7239,16 @@
         <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7274,7 +7299,7 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
@@ -7289,23 +7314,23 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>37</v>
@@ -7314,18 +7339,20 @@
         <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>37</v>
@@ -7374,13 +7401,13 @@
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>37</v>
@@ -7389,44 +7416,48 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>37</v>
       </c>
@@ -7474,13 +7505,13 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>37</v>
@@ -7489,12 +7520,12 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7517,13 +7548,13 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7574,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>38</v>
@@ -7594,7 +7625,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7605,7 +7636,7 @@
         <v>38</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>37</v>
@@ -7617,13 +7648,13 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7674,13 +7705,13 @@
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>37</v>
@@ -7694,7 +7725,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7705,7 +7736,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>37</v>
@@ -7717,13 +7748,13 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7774,19 +7805,19 @@
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>37</v>
@@ -7794,7 +7825,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7814,16 +7845,16 @@
         <v>37</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7874,7 +7905,7 @@
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>38</v>
@@ -7889,16 +7920,16 @@
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -7914,20 +7945,18 @@
         <v>37</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>37</v>
@@ -7976,7 +8005,7 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>38</v>
@@ -7991,16 +8020,16 @@
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8013,26 +8042,22 @@
         <v>37</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>37</v>
       </c>
@@ -8080,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>38</v>
@@ -8092,15 +8117,15 @@
         <v>37</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8120,16 +8145,16 @@
         <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8180,7 +8205,7 @@
         <v>37</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>38</v>
@@ -8195,23 +8220,23 @@
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>37</v>
@@ -8220,18 +8245,20 @@
         <v>37</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>37</v>
@@ -8280,13 +8307,13 @@
         <v>37</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>37</v>
@@ -8295,44 +8322,48 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>37</v>
       </c>
@@ -8380,13 +8411,13 @@
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>37</v>
@@ -8395,7 +8426,7 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -8411,7 +8442,7 @@
         <v>38</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>37</v>
@@ -8423,7 +8454,7 @@
         <v>46</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>256</v>
@@ -8486,13 +8517,13 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>37</v>
@@ -8520,16 +8551,16 @@
         <v>37</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8580,7 +8611,7 @@
         <v>37</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>38</v>
@@ -8595,23 +8626,23 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>37</v>
@@ -8620,20 +8651,18 @@
         <v>37</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>37</v>
@@ -8682,13 +8711,13 @@
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>37</v>
@@ -8697,16 +8726,16 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8719,26 +8748,22 @@
         <v>37</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>37</v>
       </c>
@@ -8786,7 +8811,7 @@
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>38</v>
@@ -8798,15 +8823,15 @@
         <v>37</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8826,16 +8851,16 @@
         <v>37</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8886,7 +8911,7 @@
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>38</v>
@@ -8901,23 +8926,23 @@
         <v>37</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>37</v>
@@ -8926,18 +8951,20 @@
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>37</v>
@@ -8986,13 +9013,13 @@
         <v>37</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>37</v>
@@ -9001,44 +9028,48 @@
         <v>37</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>37</v>
       </c>
@@ -9086,13 +9117,13 @@
         <v>37</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>37</v>
@@ -9101,7 +9132,7 @@
         <v>37</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
@@ -9129,7 +9160,7 @@
         <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>272</v>
@@ -9217,7 +9248,7 @@
         <v>38</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>37</v>
@@ -9229,13 +9260,13 @@
         <v>46</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9292,7 +9323,7 @@
         <v>38</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>37</v>
@@ -9306,7 +9337,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9317,7 +9348,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>37</v>
@@ -9329,13 +9360,13 @@
         <v>46</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9386,19 +9417,19 @@
         <v>37</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>37</v>
@@ -9406,7 +9437,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9417,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>37</v>
@@ -9426,16 +9457,16 @@
         <v>37</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9486,13 +9517,13 @@
         <v>37</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>37</v>
@@ -9501,16 +9532,16 @@
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -9526,20 +9557,18 @@
         <v>37</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>37</v>
@@ -9588,7 +9617,7 @@
         <v>37</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>38</v>
@@ -9603,16 +9632,16 @@
         <v>37</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -9625,26 +9654,22 @@
         <v>37</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>37</v>
       </c>
@@ -9692,7 +9717,7 @@
         <v>37</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>38</v>
@@ -9704,15 +9729,15 @@
         <v>37</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9720,7 +9745,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>45</v>
@@ -9732,16 +9757,16 @@
         <v>37</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9792,10 +9817,10 @@
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>45</v>
@@ -9807,23 +9832,23 @@
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>37</v>
@@ -9832,18 +9857,20 @@
         <v>37</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>37</v>
@@ -9892,13 +9919,13 @@
         <v>37</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>37</v>
@@ -9907,44 +9934,48 @@
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>37</v>
       </c>
@@ -9992,13 +10023,13 @@
         <v>37</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>37</v>
@@ -10007,12 +10038,12 @@
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10020,7 +10051,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>45</v>
@@ -10035,7 +10066,7 @@
         <v>46</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>292</v>
@@ -10092,10 +10123,10 @@
         <v>37</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>45</v>
@@ -10123,7 +10154,7 @@
         <v>38</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>37</v>
@@ -10198,7 +10229,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>37</v>
@@ -10223,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>37</v>
@@ -10298,7 +10329,7 @@
         <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>37</v>
@@ -10323,7 +10354,7 @@
         <v>38</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>37</v>
@@ -10335,13 +10366,13 @@
         <v>46</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -10398,7 +10429,7 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>37</v>
@@ -10412,7 +10443,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10435,13 +10466,13 @@
         <v>46</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10492,7 +10523,7 @@
         <v>37</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>38</v>
@@ -10512,7 +10543,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10535,13 +10566,13 @@
         <v>46</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -10592,7 +10623,7 @@
         <v>37</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>38</v>
@@ -10612,7 +10643,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10635,13 +10666,13 @@
         <v>46</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10692,7 +10723,7 @@
         <v>37</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>38</v>
@@ -10704,7 +10735,7 @@
         <v>37</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>37</v>
@@ -10712,7 +10743,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10723,7 +10754,7 @@
         <v>38</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>37</v>
@@ -10732,16 +10763,16 @@
         <v>37</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -10792,13 +10823,13 @@
         <v>37</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>37</v>
@@ -10807,16 +10838,16 @@
         <v>37</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -10832,20 +10863,18 @@
         <v>37</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>37</v>
@@ -10894,7 +10923,7 @@
         <v>37</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>38</v>
@@ -10909,16 +10938,16 @@
         <v>37</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -10931,26 +10960,22 @@
         <v>37</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>37</v>
       </c>
@@ -10998,7 +11023,7 @@
         <v>37</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>38</v>
@@ -11010,15 +11035,15 @@
         <v>37</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11038,16 +11063,16 @@
         <v>37</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11098,7 +11123,7 @@
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>38</v>
@@ -11113,23 +11138,23 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>37</v>
@@ -11138,18 +11163,20 @@
         <v>37</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>37</v>
@@ -11198,13 +11225,13 @@
         <v>37</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>37</v>
@@ -11213,44 +11240,48 @@
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>37</v>
       </c>
@@ -11298,13 +11329,13 @@
         <v>37</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>37</v>
@@ -11313,12 +11344,12 @@
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11329,7 +11360,7 @@
         <v>38</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>37</v>
@@ -11341,13 +11372,13 @@
         <v>46</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -11398,13 +11429,13 @@
         <v>37</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>37</v>
@@ -11418,7 +11449,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11429,7 +11460,7 @@
         <v>38</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>37</v>
@@ -11441,13 +11472,13 @@
         <v>46</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11498,13 +11529,13 @@
         <v>37</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>37</v>
@@ -11518,7 +11549,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11529,7 +11560,7 @@
         <v>38</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>37</v>
@@ -11541,13 +11572,13 @@
         <v>46</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11598,19 +11629,19 @@
         <v>37</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>37</v>
@@ -11618,7 +11649,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11629,7 +11660,7 @@
         <v>38</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>37</v>
@@ -11638,16 +11669,16 @@
         <v>37</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11698,13 +11729,13 @@
         <v>37</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>37</v>
@@ -11713,16 +11744,16 @@
         <v>37</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -11738,20 +11769,18 @@
         <v>37</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>37</v>
@@ -11800,7 +11829,7 @@
         <v>37</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>38</v>
@@ -11815,16 +11844,16 @@
         <v>37</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -11837,26 +11866,22 @@
         <v>37</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>140</v>
+        <v>337</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>37</v>
       </c>
@@ -11904,7 +11929,7 @@
         <v>37</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>38</v>
@@ -11916,15 +11941,15 @@
         <v>37</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -11944,16 +11969,16 @@
         <v>37</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>333</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>335</v>
+        <v>132</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -12004,7 +12029,7 @@
         <v>37</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>38</v>
@@ -12019,23 +12044,23 @@
         <v>37</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>37</v>
@@ -12044,18 +12069,20 @@
         <v>37</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>37</v>
@@ -12104,13 +12131,13 @@
         <v>37</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>37</v>
@@ -12119,44 +12146,48 @@
         <v>37</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>37</v>
       </c>
@@ -12204,13 +12235,13 @@
         <v>37</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>37</v>
@@ -12219,7 +12250,7 @@
         <v>37</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109">
@@ -12347,13 +12378,13 @@
         <v>46</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="L110" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -12424,7 +12455,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12447,13 +12478,13 @@
         <v>46</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -12504,7 +12535,7 @@
         <v>37</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>38</v>
@@ -12524,7 +12555,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12535,7 +12566,7 @@
         <v>38</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>37</v>
@@ -12547,13 +12578,13 @@
         <v>46</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>120</v>
+        <v>354</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>121</v>
+        <v>355</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -12604,13 +12635,13 @@
         <v>37</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>37</v>
@@ -12624,7 +12655,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -12647,13 +12678,13 @@
         <v>46</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -12704,7 +12735,7 @@
         <v>37</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>38</v>
@@ -12724,7 +12755,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -12747,13 +12778,13 @@
         <v>46</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>359</v>
+        <v>105</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -12804,7 +12835,7 @@
         <v>37</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>38</v>
@@ -12824,7 +12855,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -12835,7 +12866,7 @@
         <v>38</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>37</v>
@@ -12847,13 +12878,13 @@
         <v>46</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>363</v>
+        <v>118</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>364</v>
+        <v>119</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -12904,13 +12935,13 @@
         <v>37</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>37</v>
@@ -12924,7 +12955,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -12947,13 +12978,13 @@
         <v>46</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -13004,7 +13035,7 @@
         <v>37</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>38</v>
@@ -13019,6 +13050,306 @@
         <v>37</v>
       </c>
       <c r="AJ116" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>37</v>
       </c>
     </row>
